--- a/Code/Results/Cases/Case_2_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.593977017067857</v>
+        <v>1.062481119763447</v>
       </c>
       <c r="C2">
-        <v>0.4289019959895484</v>
+        <v>0.4492183535268595</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09997763865992582</v>
+        <v>0.2928396493372105</v>
       </c>
       <c r="F2">
-        <v>0.7748761526520056</v>
+        <v>1.682642749130778</v>
       </c>
       <c r="G2">
-        <v>0.2376209156524354</v>
+        <v>0.4784949337082267</v>
       </c>
       <c r="H2">
-        <v>0.2282620638187538</v>
+        <v>0.6361308971360771</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09082575586354125</v>
+        <v>0.0483418449920876</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.334363841965029</v>
+        <v>0.4800696194376144</v>
       </c>
       <c r="M2">
-        <v>0.5178967379240191</v>
+        <v>0.317045211634202</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9307734744462977</v>
+        <v>2.189351420827151</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.257449007592413</v>
+        <v>0.9563542948799295</v>
       </c>
       <c r="C3">
-        <v>0.4088623862782015</v>
+        <v>0.4431311142110559</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1016282466609972</v>
+        <v>0.2950125084929827</v>
       </c>
       <c r="F3">
-        <v>0.7539028915203261</v>
+        <v>1.692471632030362</v>
       </c>
       <c r="G3">
-        <v>0.2331884854942246</v>
+        <v>0.4837530612755643</v>
       </c>
       <c r="H3">
-        <v>0.2327564058825686</v>
+        <v>0.6428333587855946</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08235732988058686</v>
+        <v>0.04549827627575809</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3033436434312478</v>
+        <v>0.473106036226099</v>
       </c>
       <c r="M3">
-        <v>0.4520876428409508</v>
+        <v>0.2973944632485299</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9304013973269321</v>
+        <v>2.214259556163412</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.050891165961048</v>
+        <v>0.8910989728689174</v>
       </c>
       <c r="C4">
-        <v>0.3967048083798517</v>
+        <v>0.4394622221171431</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1027792278233797</v>
+        <v>0.2964481363376272</v>
       </c>
       <c r="F4">
-        <v>0.7427319278877462</v>
+        <v>1.699491885536233</v>
       </c>
       <c r="G4">
-        <v>0.2313747955958192</v>
+        <v>0.4874030058840546</v>
       </c>
       <c r="H4">
-        <v>0.2360832543700937</v>
+        <v>0.6472857173037667</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07715934494104459</v>
+        <v>0.04374678443372204</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2844916660793473</v>
+        <v>0.468970624168648</v>
       </c>
       <c r="M4">
-        <v>0.4117577206927976</v>
+        <v>0.2853636662090011</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9332757555116302</v>
+        <v>2.231142910692668</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.966712033761212</v>
+        <v>0.8644853883645283</v>
       </c>
       <c r="C5">
-        <v>0.3917856779698639</v>
+        <v>0.4379846175157098</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1032821435702864</v>
+        <v>0.2970587206583826</v>
       </c>
       <c r="F5">
-        <v>0.7385904731993804</v>
+        <v>1.702600504107743</v>
       </c>
       <c r="G5">
-        <v>0.2308522842003455</v>
+        <v>0.4889961791713588</v>
       </c>
       <c r="H5">
-        <v>0.2375764544662928</v>
+        <v>0.6491848392811974</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07504105140890971</v>
+        <v>0.04303169755921488</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2768548924729402</v>
+        <v>0.4673208865409038</v>
       </c>
       <c r="M5">
-        <v>0.3953373756106799</v>
+        <v>0.2804701517479558</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9351916578272892</v>
+        <v>2.238422363290837</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.95273319513916</v>
+        <v>0.8600649793139041</v>
       </c>
       <c r="C6">
-        <v>0.3909709366654965</v>
+        <v>0.4377403259133388</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1033676789216269</v>
+        <v>0.2971616521792768</v>
       </c>
       <c r="F6">
-        <v>0.7379270777459155</v>
+        <v>1.703131656370942</v>
       </c>
       <c r="G6">
-        <v>0.230778270420565</v>
+        <v>0.489267108571724</v>
       </c>
       <c r="H6">
-        <v>0.2378325560436636</v>
+        <v>0.6495053058118643</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.074689292288312</v>
+        <v>0.04291287850789871</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2755894689834548</v>
+        <v>0.467049097676508</v>
       </c>
       <c r="M6">
-        <v>0.3926115218071331</v>
+        <v>0.279658149992585</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.935553750696684</v>
+        <v>2.239655219220978</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04975594704996</v>
+        <v>0.8907401373563175</v>
       </c>
       <c r="C7">
-        <v>0.3966383270215061</v>
+        <v>0.4394422234730655</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1027858740328398</v>
+        <v>0.2964562673756337</v>
       </c>
       <c r="F7">
-        <v>0.7426744351272987</v>
+        <v>1.699532806019349</v>
       </c>
       <c r="G7">
-        <v>0.2313668869718555</v>
+        <v>0.4874240638733696</v>
       </c>
       <c r="H7">
-        <v>0.2361028421886999</v>
+        <v>0.6473109863742437</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07713077781222211</v>
+        <v>0.04373714587906363</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2843884937179837</v>
+        <v>0.4689482313106765</v>
       </c>
       <c r="M7">
-        <v>0.4115362181106335</v>
+        <v>0.2852976330879642</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9332986252069588</v>
+        <v>2.231239467501624</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.477912755117643</v>
+        <v>1.025908988990409</v>
       </c>
       <c r="C8">
-        <v>0.4219607717632101</v>
+        <v>0.4471053467059249</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1005178037864578</v>
+        <v>0.2935678096361638</v>
       </c>
       <c r="F8">
-        <v>0.7672790350582943</v>
+        <v>1.685827282490251</v>
       </c>
       <c r="G8">
-        <v>0.2358969816709546</v>
+        <v>0.4802203585855125</v>
       </c>
       <c r="H8">
-        <v>0.2296907834359843</v>
+        <v>0.6383719596975865</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08790518967660432</v>
+        <v>0.04736255950193424</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3236256098259673</v>
+        <v>0.4776395873242194</v>
       </c>
       <c r="M8">
-        <v>0.4951866475063582</v>
+        <v>0.3102626182317749</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9299792288887119</v>
+        <v>2.19760958201914</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.319258867127644</v>
+        <v>1.29016719727224</v>
       </c>
       <c r="C9">
-        <v>0.4728707712654909</v>
+        <v>0.4626689387729925</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0971937641937366</v>
+        <v>0.2887071927047025</v>
       </c>
       <c r="F9">
-        <v>0.8299425301682959</v>
+        <v>1.6667673777456</v>
       </c>
       <c r="G9">
-        <v>0.2525389289504005</v>
+        <v>0.4694461472930271</v>
       </c>
       <c r="H9">
-        <v>0.2218631010350123</v>
+        <v>0.6235165026145992</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1090717421352565</v>
+        <v>0.05442623233900434</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4022777596982792</v>
+        <v>0.4957882420772535</v>
       </c>
       <c r="M9">
-        <v>0.6600845750317603</v>
+        <v>0.3594815520707186</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9497800453312948</v>
+        <v>2.144292368163391</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.940245423772922</v>
+        <v>1.483751573140978</v>
       </c>
       <c r="C10">
-        <v>0.5111740592468266</v>
+        <v>0.4744199739757562</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09548399703347599</v>
+        <v>0.2856238427921429</v>
       </c>
       <c r="F10">
-        <v>0.8860493623886043</v>
+        <v>1.657529340279027</v>
       </c>
       <c r="G10">
-        <v>0.2703105076059842</v>
+        <v>0.4635857379921262</v>
       </c>
       <c r="H10">
-        <v>0.2193650243340386</v>
+        <v>0.6142320895939193</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.124684309708563</v>
+        <v>0.05958599788876739</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4613534787105777</v>
+        <v>0.5097867408118475</v>
       </c>
       <c r="M10">
-        <v>0.7821390531406394</v>
+        <v>0.3957880678451886</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9828484806288742</v>
+        <v>2.112845277461673</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.22380181479781</v>
+        <v>1.571680893625512</v>
       </c>
       <c r="C11">
-        <v>0.5288277766663327</v>
+        <v>0.4798324565115593</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09487628867327125</v>
+        <v>0.2843265961270571</v>
       </c>
       <c r="F11">
-        <v>0.9140622182428046</v>
+        <v>1.65436157425664</v>
       </c>
       <c r="G11">
-        <v>0.2797921069464664</v>
+        <v>0.4613685323534895</v>
       </c>
       <c r="H11">
-        <v>0.2190200522754893</v>
+        <v>0.6103622492414118</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.131809495562031</v>
+        <v>0.06192641866002901</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4885680551215472</v>
+        <v>0.5162975781407795</v>
       </c>
       <c r="M11">
-        <v>0.8379527773659987</v>
+        <v>0.4123335339681944</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.002501131020239</v>
+        <v>2.100221989153368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.331368554732364</v>
+        <v>1.604956680262376</v>
       </c>
       <c r="C12">
-        <v>0.5355486866330921</v>
+        <v>0.4818914408328396</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09467160344968306</v>
+        <v>0.2838504814583231</v>
       </c>
       <c r="F12">
-        <v>0.9250548145627278</v>
+        <v>1.653310790517367</v>
       </c>
       <c r="G12">
-        <v>0.2836007049409091</v>
+        <v>0.4605936612480335</v>
       </c>
       <c r="H12">
-        <v>0.2190108607586083</v>
+        <v>0.6089477039992914</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1345117183549434</v>
+        <v>0.06281165590897331</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4989276988116274</v>
+        <v>0.5187834202519355</v>
       </c>
       <c r="M12">
-        <v>0.8591377629889223</v>
+        <v>0.4186027861953647</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.01065850830625</v>
+        <v>2.09568420842362</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.308193062885948</v>
+        <v>1.597791115872099</v>
       </c>
       <c r="C13">
-        <v>0.5340995770763186</v>
+        <v>0.4814475874006234</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09471453829495147</v>
+        <v>0.2839523490774241</v>
       </c>
       <c r="F13">
-        <v>0.9226698063762342</v>
+        <v>1.653530478611756</v>
       </c>
       <c r="G13">
-        <v>0.2827704676367233</v>
+        <v>0.4607576610942274</v>
       </c>
       <c r="H13">
-        <v>0.2190073119095004</v>
+        <v>0.6092500884427849</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1339295524654531</v>
+        <v>0.06262105086355518</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4966940745191124</v>
+        <v>0.5182471488973306</v>
       </c>
       <c r="M13">
-        <v>0.8545728640874373</v>
+        <v>0.4172524258363168</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.008868981767449</v>
+        <v>2.096650712762042</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.232647364983677</v>
+        <v>1.574418947603704</v>
       </c>
       <c r="C14">
-        <v>0.5293799747593653</v>
+        <v>0.4800016633722919</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09485893338106699</v>
+        <v>0.2842871229392081</v>
       </c>
       <c r="F14">
-        <v>0.9149587156417454</v>
+        <v>1.654272143886814</v>
       </c>
       <c r="G14">
-        <v>0.2801009683725724</v>
+        <v>0.4613034846243806</v>
       </c>
       <c r="H14">
-        <v>0.2190168165877822</v>
+        <v>0.6102448539434064</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1320317228857562</v>
+        <v>0.06199926859837035</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4894192351512316</v>
+        <v>0.5165016836512564</v>
       </c>
       <c r="M14">
-        <v>0.8396946394759084</v>
+        <v>0.4128492343316026</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.003157593353535</v>
+        <v>2.099843802641686</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.186399337667183</v>
+        <v>1.56010000805793</v>
       </c>
       <c r="C15">
-        <v>0.5264938366223078</v>
+        <v>0.479117210063265</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09495072288009077</v>
+        <v>0.2844941503711258</v>
       </c>
       <c r="F15">
-        <v>0.910286377440201</v>
+        <v>1.654745810776177</v>
       </c>
       <c r="G15">
-        <v>0.2784947595244986</v>
+        <v>0.4616462541278139</v>
       </c>
       <c r="H15">
-        <v>0.2190386894148872</v>
+        <v>0.6108608031073786</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1308698012587328</v>
+        <v>0.06161827336460846</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4849703848485376</v>
+        <v>0.5154351769766095</v>
       </c>
       <c r="M15">
-        <v>0.8305879892160775</v>
+        <v>0.4101526413226466</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9997539808799729</v>
+        <v>2.101831242594727</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.921738882509317</v>
+        <v>1.478002335085932</v>
       </c>
       <c r="C16">
-        <v>0.5100252010199426</v>
+        <v>0.4740675822013429</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09552721736299041</v>
+        <v>0.2857107389809155</v>
       </c>
       <c r="F16">
-        <v>0.8842709990978932</v>
+        <v>1.657757181117887</v>
       </c>
       <c r="G16">
-        <v>0.2697204226966932</v>
+        <v>0.4637396851086564</v>
       </c>
       <c r="H16">
-        <v>0.2194041354613248</v>
+        <v>0.614492111513151</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1242191883411436</v>
+        <v>0.05943290478403895</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4595822245067751</v>
+        <v>0.5093640986200398</v>
       </c>
       <c r="M16">
-        <v>0.7784979914394512</v>
+        <v>0.3947073418057059</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9816612975739218</v>
+        <v>2.113704130479192</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.759676666812197</v>
+        <v>1.427602542145848</v>
       </c>
       <c r="C17">
-        <v>0.4999829278029608</v>
+        <v>0.4709867690542922</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09592512047221113</v>
+        <v>0.2864840470714061</v>
       </c>
       <c r="F17">
-        <v>0.8689675292628039</v>
+        <v>1.65986956006968</v>
       </c>
       <c r="G17">
-        <v>0.2647073921468106</v>
+        <v>0.4651390165561935</v>
       </c>
       <c r="H17">
-        <v>0.2198362979308115</v>
+        <v>0.6168104030842727</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1201456603963393</v>
+        <v>0.05809047627521835</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4440981821681902</v>
+        <v>0.5056761246878949</v>
       </c>
       <c r="M17">
-        <v>0.7466222170282819</v>
+        <v>0.3852394143260085</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9717789034352222</v>
+        <v>2.121418954116237</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.666560785473621</v>
+        <v>1.398601496340916</v>
       </c>
       <c r="C18">
-        <v>0.4942282825398365</v>
+        <v>0.4692210747800232</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09616992969378124</v>
+        <v>0.2869387545067834</v>
       </c>
       <c r="F18">
-        <v>0.8603980081558831</v>
+        <v>1.661181932305269</v>
       </c>
       <c r="G18">
-        <v>0.2619544459678238</v>
+        <v>0.4659860985322979</v>
       </c>
       <c r="H18">
-        <v>0.2201588711749167</v>
+        <v>0.6181771124770705</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1178047856683122</v>
+        <v>0.05731771171337385</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.435223917588317</v>
+        <v>0.5035683579953485</v>
       </c>
       <c r="M18">
-        <v>0.7283149620184304</v>
+        <v>0.3797965080907062</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9665253487524978</v>
+        <v>2.126014619384549</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.635049109599322</v>
+        <v>1.388780168526523</v>
       </c>
       <c r="C19">
-        <v>0.4922834516356431</v>
+        <v>0.4686243312524425</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09625552753962552</v>
+        <v>0.2870944154917758</v>
       </c>
       <c r="F19">
-        <v>0.8575356833962076</v>
+        <v>1.661643005486383</v>
       </c>
       <c r="G19">
-        <v>0.2610442393634145</v>
+        <v>0.4662801514246127</v>
       </c>
       <c r="H19">
-        <v>0.2202805749924508</v>
+        <v>0.6186455736786272</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1170125457259417</v>
+        <v>0.05705595946635356</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4322245477315221</v>
+        <v>0.5028570223797857</v>
       </c>
       <c r="M19">
-        <v>0.7221208240359402</v>
+        <v>0.377954125614977</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9648189886475933</v>
+        <v>2.127597806240956</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.776918064713357</v>
+        <v>1.432968985791888</v>
       </c>
       <c r="C20">
-        <v>0.5010497097031816</v>
+        <v>0.4713140756406347</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09588110572058817</v>
+        <v>0.286400700526583</v>
       </c>
       <c r="F20">
-        <v>0.8705723452828664</v>
+        <v>1.659634614473049</v>
       </c>
       <c r="G20">
-        <v>0.2652274192692445</v>
+        <v>0.4649856838257946</v>
       </c>
       <c r="H20">
-        <v>0.2197825806047646</v>
+        <v>0.6165601715165252</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1205790705487289</v>
+        <v>0.05823344621387605</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4457431635653961</v>
+        <v>0.5060673244590959</v>
       </c>
       <c r="M20">
-        <v>0.7500126146599655</v>
+        <v>0.3862470049170241</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9727859733055055</v>
+        <v>2.120581310639494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.254831501811509</v>
+        <v>1.581284509439968</v>
       </c>
       <c r="C21">
-        <v>0.5307652401145333</v>
+        <v>0.4804261130998952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09481582245623521</v>
+        <v>0.2841883815029504</v>
       </c>
       <c r="F21">
-        <v>0.9172129864383294</v>
+        <v>1.654050260990388</v>
       </c>
       <c r="G21">
-        <v>0.2808790022969205</v>
+        <v>0.4611414044212765</v>
       </c>
       <c r="H21">
-        <v>0.2190106654569348</v>
+        <v>0.6099512861956171</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1325890445732156</v>
+        <v>0.06218192948561097</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4915545220088688</v>
+        <v>0.5170138190614466</v>
       </c>
       <c r="M21">
-        <v>0.8440633254188157</v>
+        <v>0.4141424572151564</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.004815316194538</v>
+        <v>2.098899332582263</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.568302676831308</v>
+        <v>1.678093152988424</v>
       </c>
       <c r="C22">
-        <v>0.550396389756429</v>
+        <v>0.4864360142370003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09426838564962914</v>
+        <v>0.2828306465112096</v>
       </c>
       <c r="F22">
-        <v>0.949951577922036</v>
+        <v>1.651267767012854</v>
       </c>
       <c r="G22">
-        <v>0.2923884459449653</v>
+        <v>0.4590063762857</v>
       </c>
       <c r="H22">
-        <v>0.2192179608734932</v>
+        <v>0.605928570230148</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1404623763115254</v>
+        <v>0.06475646715535532</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5218126982268814</v>
+        <v>0.5242863828846538</v>
       </c>
       <c r="M22">
-        <v>0.905823688840421</v>
+        <v>0.4323959693981507</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.029944916163998</v>
+        <v>2.086141935585147</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.400881188308176</v>
+        <v>1.626436568417603</v>
       </c>
       <c r="C23">
-        <v>0.5398986295421935</v>
+        <v>0.4832234884570994</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09454660832763118</v>
+        <v>0.2835472398929291</v>
       </c>
       <c r="F23">
-        <v>0.9322626282167477</v>
+        <v>1.652673488686105</v>
       </c>
       <c r="G23">
-        <v>0.2861225023918266</v>
+        <v>0.4601112769073694</v>
       </c>
       <c r="H23">
-        <v>0.2190395321533742</v>
+        <v>0.6080484265463895</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1362577546667154</v>
+        <v>0.06338295694020957</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5056324883252898</v>
+        <v>0.5203941153547333</v>
       </c>
       <c r="M23">
-        <v>0.872831510235585</v>
+        <v>0.4226518219365047</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.016130495914467</v>
+        <v>2.092821344221647</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.769123057518698</v>
+        <v>1.430542896003772</v>
       </c>
       <c r="C24">
-        <v>0.5005673592877713</v>
+        <v>0.4711660831648032</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09590095487319061</v>
+        <v>0.2864383499673586</v>
       </c>
       <c r="F24">
-        <v>0.8698460977753371</v>
+        <v>1.659740528310053</v>
       </c>
       <c r="G24">
-        <v>0.2649919141396779</v>
+        <v>0.4650548729113595</v>
       </c>
       <c r="H24">
-        <v>0.2198066359202713</v>
+        <v>0.6166731956356983</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1203831226034637</v>
+        <v>0.05816881256708228</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4449993815211428</v>
+        <v>0.5058904240956821</v>
       </c>
       <c r="M24">
-        <v>0.7484797586840699</v>
+        <v>0.3857914721493501</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9723293479271859</v>
+        <v>2.120959509935162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.091289779377576</v>
+        <v>1.218772489095727</v>
       </c>
       <c r="C25">
-        <v>0.4589507610151031</v>
+        <v>0.4584022567019019</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09796796883252057</v>
+        <v>0.2899363084003586</v>
       </c>
       <c r="F25">
-        <v>0.8113195878316759</v>
+        <v>1.671086753312252</v>
       </c>
       <c r="G25">
-        <v>0.2471251036256987</v>
+        <v>0.4720007526404544</v>
       </c>
       <c r="H25">
-        <v>0.2234367983653485</v>
+        <v>0.6272490552942571</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1033377679479486</v>
+        <v>0.05252043018045072</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3807926930437446</v>
+        <v>0.4907611840859403</v>
       </c>
       <c r="M25">
-        <v>0.6153456807752562</v>
+        <v>0.3461399411743642</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.941359692789149</v>
+        <v>2.157361273123556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.062481119763447</v>
+        <v>2.5939770170678</v>
       </c>
       <c r="C2">
-        <v>0.4492183535268595</v>
+        <v>0.428901995989861</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2928396493372105</v>
+        <v>0.09997763865994003</v>
       </c>
       <c r="F2">
-        <v>1.682642749130778</v>
+        <v>0.7748761526520056</v>
       </c>
       <c r="G2">
-        <v>0.4784949337082267</v>
+        <v>0.2376209156523785</v>
       </c>
       <c r="H2">
-        <v>0.6361308971360771</v>
+        <v>0.2282620638187538</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0483418449920876</v>
+        <v>0.09082575586355546</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4800696194376144</v>
+        <v>0.3343638419651001</v>
       </c>
       <c r="M2">
-        <v>0.317045211634202</v>
+        <v>0.5178967379240333</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.189351420827151</v>
+        <v>0.9307734744463119</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9563542948799295</v>
+        <v>2.257449007592697</v>
       </c>
       <c r="C3">
-        <v>0.4431311142110559</v>
+        <v>0.4088623862786562</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2950125084929827</v>
+        <v>0.1016282466609972</v>
       </c>
       <c r="F3">
-        <v>1.692471632030362</v>
+        <v>0.7539028915203332</v>
       </c>
       <c r="G3">
-        <v>0.4837530612755643</v>
+        <v>0.2331884854942246</v>
       </c>
       <c r="H3">
-        <v>0.6428333587855946</v>
+        <v>0.2327564058824549</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04549827627575809</v>
+        <v>0.08235732988069344</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.473106036226099</v>
+        <v>0.3033436434311625</v>
       </c>
       <c r="M3">
-        <v>0.2973944632485299</v>
+        <v>0.452087642840965</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.214259556163412</v>
+        <v>0.9304013973269321</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8910989728689174</v>
+        <v>2.050891165961218</v>
       </c>
       <c r="C4">
-        <v>0.4394622221171431</v>
+        <v>0.396704808379809</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2964481363376272</v>
+        <v>0.102779227823385</v>
       </c>
       <c r="F4">
-        <v>1.699491885536233</v>
+        <v>0.7427319278877462</v>
       </c>
       <c r="G4">
-        <v>0.4874030058840546</v>
+        <v>0.2313747955958334</v>
       </c>
       <c r="H4">
-        <v>0.6472857173037667</v>
+        <v>0.2360832543699942</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04374678443372204</v>
+        <v>0.07715934494108723</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.468970624168648</v>
+        <v>0.2844916660793899</v>
       </c>
       <c r="M4">
-        <v>0.2853636662090011</v>
+        <v>0.4117577206927905</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.231142910692668</v>
+        <v>0.9332757555116586</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8644853883645283</v>
+        <v>1.966712033761382</v>
       </c>
       <c r="C5">
-        <v>0.4379846175157098</v>
+        <v>0.3917856779701765</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2970587206583826</v>
+        <v>0.103282143570274</v>
       </c>
       <c r="F5">
-        <v>1.702600504107743</v>
+        <v>0.7385904731993662</v>
       </c>
       <c r="G5">
-        <v>0.4889961791713588</v>
+        <v>0.2308522842002958</v>
       </c>
       <c r="H5">
-        <v>0.6491848392811974</v>
+        <v>0.2375764544664065</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04303169755921488</v>
+        <v>0.07504105140899497</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4673208865409038</v>
+        <v>0.2768548924728975</v>
       </c>
       <c r="M5">
-        <v>0.2804701517479558</v>
+        <v>0.3953373756106799</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.238422363290837</v>
+        <v>0.9351916578272181</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8600649793139041</v>
+        <v>1.95273319513916</v>
       </c>
       <c r="C6">
-        <v>0.4377403259133388</v>
+        <v>0.3909709366657239</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2971616521792768</v>
+        <v>0.1033676789216127</v>
       </c>
       <c r="F6">
-        <v>1.703131656370942</v>
+        <v>0.7379270777459155</v>
       </c>
       <c r="G6">
-        <v>0.489267108571724</v>
+        <v>0.2307782704205934</v>
       </c>
       <c r="H6">
-        <v>0.6495053058118643</v>
+        <v>0.2378325560437773</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04291287850789871</v>
+        <v>0.0746892922883049</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.467049097676508</v>
+        <v>0.2755894689834548</v>
       </c>
       <c r="M6">
-        <v>0.279658149992585</v>
+        <v>0.3926115218071118</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.239655219220978</v>
+        <v>0.9355537506966272</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8907401373563175</v>
+        <v>2.04975594704996</v>
       </c>
       <c r="C7">
-        <v>0.4394422234730655</v>
+        <v>0.3966383270217051</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2964562673756337</v>
+        <v>0.1027858740327936</v>
       </c>
       <c r="F7">
-        <v>1.699532806019349</v>
+        <v>0.7426744351272987</v>
       </c>
       <c r="G7">
-        <v>0.4874240638733696</v>
+        <v>0.2313668869717915</v>
       </c>
       <c r="H7">
-        <v>0.6473109863742437</v>
+        <v>0.2361028421885862</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04373714587906363</v>
+        <v>0.07713077781210842</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4689482313106765</v>
+        <v>0.2843884937178558</v>
       </c>
       <c r="M7">
-        <v>0.2852976330879642</v>
+        <v>0.4115362181106477</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.231239467501624</v>
+        <v>0.9332986252069588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.025908988990409</v>
+        <v>2.477912755117757</v>
       </c>
       <c r="C8">
-        <v>0.4471053467059249</v>
+        <v>0.4219607717635654</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2935678096361638</v>
+        <v>0.100517803786488</v>
       </c>
       <c r="F8">
-        <v>1.685827282490251</v>
+        <v>0.7672790350582943</v>
       </c>
       <c r="G8">
-        <v>0.4802203585855125</v>
+        <v>0.2358969816710683</v>
       </c>
       <c r="H8">
-        <v>0.6383719596975865</v>
+        <v>0.2296907834359843</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04736255950193424</v>
+        <v>0.08790518967652616</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4776395873242194</v>
+        <v>0.3236256098258536</v>
       </c>
       <c r="M8">
-        <v>0.3102626182317749</v>
+        <v>0.4951866475063653</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.19760958201914</v>
+        <v>0.9299792288886977</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.29016719727224</v>
+        <v>3.319258867127587</v>
       </c>
       <c r="C9">
-        <v>0.4626689387729925</v>
+        <v>0.4728707712652351</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2887071927047025</v>
+        <v>0.0971937641937668</v>
       </c>
       <c r="F9">
-        <v>1.6667673777456</v>
+        <v>0.829942530168303</v>
       </c>
       <c r="G9">
-        <v>0.4694461472930271</v>
+        <v>0.2525389289503863</v>
       </c>
       <c r="H9">
-        <v>0.6235165026145992</v>
+        <v>0.2218631010350123</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05442623233900434</v>
+        <v>0.1090717421353418</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4957882420772535</v>
+        <v>0.4022777596981939</v>
       </c>
       <c r="M9">
-        <v>0.3594815520707186</v>
+        <v>0.6600845750317603</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.144292368163391</v>
+        <v>0.9497800453312237</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.483751573140978</v>
+        <v>3.940245423772808</v>
       </c>
       <c r="C10">
-        <v>0.4744199739757562</v>
+        <v>0.5111740592464287</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2856238427921429</v>
+        <v>0.09548399703346178</v>
       </c>
       <c r="F10">
-        <v>1.657529340279027</v>
+        <v>0.8860493623886043</v>
       </c>
       <c r="G10">
-        <v>0.4635857379921262</v>
+        <v>0.2703105076059629</v>
       </c>
       <c r="H10">
-        <v>0.6142320895939193</v>
+        <v>0.2193650243340386</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05958599788876739</v>
+        <v>0.124684309708627</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5097867408118475</v>
+        <v>0.4613534787105351</v>
       </c>
       <c r="M10">
-        <v>0.3957880678451886</v>
+        <v>0.782139053140618</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.112845277461673</v>
+        <v>0.9828484806289595</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.571680893625512</v>
+        <v>4.223801814797923</v>
       </c>
       <c r="C11">
-        <v>0.4798324565115593</v>
+        <v>0.5288277766664748</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2843265961270571</v>
+        <v>0.09487628867328546</v>
       </c>
       <c r="F11">
-        <v>1.65436157425664</v>
+        <v>0.9140622182428331</v>
       </c>
       <c r="G11">
-        <v>0.4613685323534895</v>
+        <v>0.2797921069464451</v>
       </c>
       <c r="H11">
-        <v>0.6103622492414118</v>
+        <v>0.2190200522754751</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06192641866002901</v>
+        <v>0.131809495562031</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5162975781407795</v>
+        <v>0.4885680551215188</v>
       </c>
       <c r="M11">
-        <v>0.4123335339681944</v>
+        <v>0.8379527773660129</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.100221989153368</v>
+        <v>1.002501131020324</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.604956680262376</v>
+        <v>4.331368554732194</v>
       </c>
       <c r="C12">
-        <v>0.4818914408328396</v>
+        <v>0.5355486866328363</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2838504814583231</v>
+        <v>0.09467160344969194</v>
       </c>
       <c r="F12">
-        <v>1.653310790517367</v>
+        <v>0.9250548145627278</v>
       </c>
       <c r="G12">
-        <v>0.4605936612480335</v>
+        <v>0.2836007049409091</v>
       </c>
       <c r="H12">
-        <v>0.6089477039992914</v>
+        <v>0.219010860758722</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06281165590897331</v>
+        <v>0.1345117183549647</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5187834202519355</v>
+        <v>0.4989276988116274</v>
       </c>
       <c r="M12">
-        <v>0.4186027861953647</v>
+        <v>0.8591377629889365</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.09568420842362</v>
+        <v>1.010658508306221</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.597791115872099</v>
+        <v>4.308193062885607</v>
       </c>
       <c r="C13">
-        <v>0.4814475874006234</v>
+        <v>0.5340995770764323</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2839523490774241</v>
+        <v>0.09471453829493903</v>
       </c>
       <c r="F13">
-        <v>1.653530478611756</v>
+        <v>0.9226698063762342</v>
       </c>
       <c r="G13">
-        <v>0.4607576610942274</v>
+        <v>0.2827704676367802</v>
       </c>
       <c r="H13">
-        <v>0.6092500884427849</v>
+        <v>0.2190073119095004</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06262105086355518</v>
+        <v>0.133929552465446</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5182471488973306</v>
+        <v>0.4966940745190556</v>
       </c>
       <c r="M13">
-        <v>0.4172524258363168</v>
+        <v>0.8545728640874373</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.096650712762042</v>
+        <v>1.008868981767506</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.574418947603704</v>
+        <v>4.232647364983961</v>
       </c>
       <c r="C14">
-        <v>0.4800016633722919</v>
+        <v>0.5293799747593937</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2842871229392081</v>
+        <v>0.09485893338106699</v>
       </c>
       <c r="F14">
-        <v>1.654272143886814</v>
+        <v>0.9149587156417454</v>
       </c>
       <c r="G14">
-        <v>0.4613034846243806</v>
+        <v>0.280100968372615</v>
       </c>
       <c r="H14">
-        <v>0.6102448539434064</v>
+        <v>0.2190168165877822</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06199926859837035</v>
+        <v>0.1320317228856993</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5165016836512564</v>
+        <v>0.4894192351513027</v>
       </c>
       <c r="M14">
-        <v>0.4128492343316026</v>
+        <v>0.8396946394758942</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.099843802641686</v>
+        <v>1.003157593353535</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.56010000805793</v>
+        <v>4.186399337667126</v>
       </c>
       <c r="C15">
-        <v>0.479117210063265</v>
+        <v>0.5264938366223646</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2844941503711258</v>
+        <v>0.09495072288009254</v>
       </c>
       <c r="F15">
-        <v>1.654745810776177</v>
+        <v>0.910286377440201</v>
       </c>
       <c r="G15">
-        <v>0.4616462541278139</v>
+        <v>0.2784947595246194</v>
       </c>
       <c r="H15">
-        <v>0.6108608031073786</v>
+        <v>0.2190386894150009</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06161827336460846</v>
+        <v>0.1308698012586618</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5154351769766095</v>
+        <v>0.484970384848566</v>
       </c>
       <c r="M15">
-        <v>0.4101526413226466</v>
+        <v>0.8305879892160846</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.101831242594727</v>
+        <v>0.9997539808799587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.478002335085932</v>
+        <v>3.921738882509317</v>
       </c>
       <c r="C16">
-        <v>0.4740675822013429</v>
+        <v>0.5100252010199426</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2857107389809155</v>
+        <v>0.09552721736298864</v>
       </c>
       <c r="F16">
-        <v>1.657757181117887</v>
+        <v>0.884270999097879</v>
       </c>
       <c r="G16">
-        <v>0.4637396851086564</v>
+        <v>0.2697204226966434</v>
       </c>
       <c r="H16">
-        <v>0.614492111513151</v>
+        <v>0.2194041354613177</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05943290478403895</v>
+        <v>0.1242191883411792</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5093640986200398</v>
+        <v>0.4595822245068177</v>
       </c>
       <c r="M16">
-        <v>0.3947073418057059</v>
+        <v>0.7784979914394583</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.113704130479192</v>
+        <v>0.9816612975738082</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.427602542145848</v>
+        <v>3.75967666681214</v>
       </c>
       <c r="C17">
-        <v>0.4709867690542922</v>
+        <v>0.4999829278033872</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2864840470714061</v>
+        <v>0.09592512047218449</v>
       </c>
       <c r="F17">
-        <v>1.65986956006968</v>
+        <v>0.8689675292628039</v>
       </c>
       <c r="G17">
-        <v>0.4651390165561935</v>
+        <v>0.2647073921467609</v>
       </c>
       <c r="H17">
-        <v>0.6168104030842727</v>
+        <v>0.2198362979306836</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05809047627521835</v>
+        <v>0.1201456603963749</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5056761246878949</v>
+        <v>0.4440981821681049</v>
       </c>
       <c r="M17">
-        <v>0.3852394143260085</v>
+        <v>0.7466222170282748</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.121418954116237</v>
+        <v>0.9717789034352506</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.398601496340916</v>
+        <v>3.666560785473564</v>
       </c>
       <c r="C18">
-        <v>0.4692210747800232</v>
+        <v>0.4942282825396376</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2869387545067834</v>
+        <v>0.09616992969376881</v>
       </c>
       <c r="F18">
-        <v>1.661181932305269</v>
+        <v>0.8603980081558831</v>
       </c>
       <c r="G18">
-        <v>0.4659860985322979</v>
+        <v>0.2619544459678167</v>
       </c>
       <c r="H18">
-        <v>0.6181771124770705</v>
+        <v>0.2201588711750375</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05731771171337385</v>
+        <v>0.117804785668234</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5035683579953485</v>
+        <v>0.4352239175883028</v>
       </c>
       <c r="M18">
-        <v>0.3797965080907062</v>
+        <v>0.7283149620184375</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.126014619384549</v>
+        <v>0.9665253487524978</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.388780168526523</v>
+        <v>3.635049109599095</v>
       </c>
       <c r="C19">
-        <v>0.4686243312524425</v>
+        <v>0.4922834516353873</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2870944154917758</v>
+        <v>0.09625552753962374</v>
       </c>
       <c r="F19">
-        <v>1.661643005486383</v>
+        <v>0.8575356833961791</v>
       </c>
       <c r="G19">
-        <v>0.4662801514246127</v>
+        <v>0.2610442393633647</v>
       </c>
       <c r="H19">
-        <v>0.6186455736786272</v>
+        <v>0.2202805749924579</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05705595946635356</v>
+        <v>0.1170125457260838</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5028570223797857</v>
+        <v>0.4322245477315647</v>
       </c>
       <c r="M19">
-        <v>0.377954125614977</v>
+        <v>0.7221208240359474</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.127597806240956</v>
+        <v>0.9648189886476075</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.432968985791888</v>
+        <v>3.776918064713129</v>
       </c>
       <c r="C20">
-        <v>0.4713140756406347</v>
+        <v>0.5010497097030679</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.286400700526583</v>
+        <v>0.09588110572057396</v>
       </c>
       <c r="F20">
-        <v>1.659634614473049</v>
+        <v>0.8705723452828806</v>
       </c>
       <c r="G20">
-        <v>0.4649856838257946</v>
+        <v>0.2652274192692445</v>
       </c>
       <c r="H20">
-        <v>0.6165601715165252</v>
+        <v>0.2197825806046438</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05823344621387605</v>
+        <v>0.120579070548736</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5060673244590959</v>
+        <v>0.4457431635654672</v>
       </c>
       <c r="M20">
-        <v>0.3862470049170241</v>
+        <v>0.7500126146599442</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.120581310639494</v>
+        <v>0.9727859733054771</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.581284509439968</v>
+        <v>4.254831501811623</v>
       </c>
       <c r="C21">
-        <v>0.4804261130998952</v>
+        <v>0.5307652401147607</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2841883815029504</v>
+        <v>0.09481582245624942</v>
       </c>
       <c r="F21">
-        <v>1.654050260990388</v>
+        <v>0.9172129864383294</v>
       </c>
       <c r="G21">
-        <v>0.4611414044212765</v>
+        <v>0.2808790022969561</v>
       </c>
       <c r="H21">
-        <v>0.6099512861956171</v>
+        <v>0.2190106654568353</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06218192948561097</v>
+        <v>0.1325890445732583</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5170138190614466</v>
+        <v>0.4915545220088831</v>
       </c>
       <c r="M21">
-        <v>0.4141424572151564</v>
+        <v>0.8440633254188228</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.098899332582263</v>
+        <v>1.004815316194509</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.678093152988424</v>
+        <v>4.568302676831081</v>
       </c>
       <c r="C22">
-        <v>0.4864360142370003</v>
+        <v>0.5503963897566564</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2828306465112096</v>
+        <v>0.0942683856496167</v>
       </c>
       <c r="F22">
-        <v>1.651267767012854</v>
+        <v>0.949951577922036</v>
       </c>
       <c r="G22">
-        <v>0.4590063762857</v>
+        <v>0.2923884459449511</v>
       </c>
       <c r="H22">
-        <v>0.605928570230148</v>
+        <v>0.2192179608733795</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06475646715535532</v>
+        <v>0.1404623763115254</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5242863828846538</v>
+        <v>0.5218126982268387</v>
       </c>
       <c r="M22">
-        <v>0.4323959693981507</v>
+        <v>0.9058236888404068</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.086141935585147</v>
+        <v>1.029944916163942</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.626436568417603</v>
+        <v>4.400881188308404</v>
       </c>
       <c r="C23">
-        <v>0.4832234884570994</v>
+        <v>0.5398986295422787</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2835472398929291</v>
+        <v>0.09454660832763295</v>
       </c>
       <c r="F23">
-        <v>1.652673488686105</v>
+        <v>0.9322626282167192</v>
       </c>
       <c r="G23">
-        <v>0.4601112769073694</v>
+        <v>0.2861225023918834</v>
       </c>
       <c r="H23">
-        <v>0.6080484265463895</v>
+        <v>0.2190395321532463</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06338295694020957</v>
+        <v>0.136257754666687</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5203941153547333</v>
+        <v>0.5056324883253183</v>
       </c>
       <c r="M23">
-        <v>0.4226518219365047</v>
+        <v>0.8728315102356063</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.092821344221647</v>
+        <v>1.016130495914467</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.430542896003772</v>
+        <v>3.769123057518698</v>
       </c>
       <c r="C24">
-        <v>0.4711660831648032</v>
+        <v>0.5005673592875155</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2864383499673586</v>
+        <v>0.09590095487317818</v>
       </c>
       <c r="F24">
-        <v>1.659740528310053</v>
+        <v>0.8698460977753371</v>
       </c>
       <c r="G24">
-        <v>0.4650548729113595</v>
+        <v>0.2649919141396992</v>
       </c>
       <c r="H24">
-        <v>0.6166731956356983</v>
+        <v>0.2198066359203921</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05816881256708228</v>
+        <v>0.1203831226034424</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5058904240956821</v>
+        <v>0.4449993815211002</v>
       </c>
       <c r="M24">
-        <v>0.3857914721493501</v>
+        <v>0.7484797586840841</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.120959509935162</v>
+        <v>0.9723293479272002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.218772489095727</v>
+        <v>3.091289779377462</v>
       </c>
       <c r="C25">
-        <v>0.4584022567019019</v>
+        <v>0.4589507610153305</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2899363084003586</v>
+        <v>0.09796796883249037</v>
       </c>
       <c r="F25">
-        <v>1.671086753312252</v>
+        <v>0.8113195878316759</v>
       </c>
       <c r="G25">
-        <v>0.4720007526404544</v>
+        <v>0.247125103625649</v>
       </c>
       <c r="H25">
-        <v>0.6272490552942571</v>
+        <v>0.2234367983652348</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05252043018045072</v>
+        <v>0.1033377679481049</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4907611840859403</v>
+        <v>0.3807926930437588</v>
       </c>
       <c r="M25">
-        <v>0.3461399411743642</v>
+        <v>0.6153456807752633</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.157361273123556</v>
+        <v>0.9413596927890779</v>
       </c>
     </row>
   </sheetData>
